--- a/po_analysis_by_asin/B09SBV8M5F_po_data.xlsx
+++ b/po_analysis_by_asin/B09SBV8M5F_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,65 +452,209 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>600</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>540</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45320</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45334</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>720</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45355</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>460</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45362</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B9" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B27" t="n">
         <v>160</v>
       </c>
     </row>
@@ -525,7 +669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,25 +691,73 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>1620</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>720</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B4" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B10" t="n">
         <v>620</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B09SBV8M5F_po_data.xlsx
+++ b/po_analysis_by_asin/B09SBV8M5F_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,31 +452,31 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45123.99999999999</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45130.99999999999</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45144.99999999999</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45158.99999999999</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>20</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45179.99999999999</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>20</v>
@@ -492,15 +492,15 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45186.99999999999</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45193.99999999999</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>20</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45207.99999999999</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>40</v>
@@ -516,39 +516,39 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45214.99999999999</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45221.99999999999</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45228.99999999999</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45235.99999999999</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45242.99999999999</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>80</v>
@@ -556,106 +556,74 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45249.99999999999</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45256.99999999999</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45263.99999999999</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45270.99999999999</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>40</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45277.99999999999</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45298.99999999999</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45305.99999999999</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45312.99999999999</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45319.99999999999</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45326.99999999999</v>
-      </c>
-      <c r="B24" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45340.99999999999</v>
-      </c>
-      <c r="B25" t="n">
         <v>720</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>45361.99999999999</v>
-      </c>
-      <c r="B26" t="n">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>45368.99999999999</v>
-      </c>
-      <c r="B27" t="n">
-        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -669,7 +637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,74 +659,58 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45138.99999999999</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45169.99999999999</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45199.99999999999</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45230.99999999999</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>140</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45260.99999999999</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>340</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45291.99999999999</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>60</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45322.99999999999</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45351.99999999999</v>
-      </c>
-      <c r="B9" t="n">
         <v>720</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45382.99999999999</v>
-      </c>
-      <c r="B10" t="n">
-        <v>620</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09SBV8M5F_po_data.xlsx
+++ b/po_analysis_by_asin/B09SBV8M5F_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -653,7 +654,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -711,6 +712,467 @@
       </c>
       <c r="B8" t="n">
         <v>720</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-309.9584288973914</v>
+      </c>
+      <c r="D2" t="n">
+        <v>68.92008458619448</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-275.9740200112391</v>
+      </c>
+      <c r="D3" t="n">
+        <v>97.66240340524286</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-229.0277570744432</v>
+      </c>
+      <c r="D4" t="n">
+        <v>165.2299862578085</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-211.3528519150798</v>
+      </c>
+      <c r="D5" t="n">
+        <v>190.6244962164252</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-173.5818711903755</v>
+      </c>
+      <c r="D6" t="n">
+        <v>196.2225772599766</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>37</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-142.2583021282564</v>
+      </c>
+      <c r="D7" t="n">
+        <v>233.8213240571929</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>55</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-145.1462777859865</v>
+      </c>
+      <c r="D8" t="n">
+        <v>248.7854722588258</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>72</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-117.783709228381</v>
+      </c>
+      <c r="D9" t="n">
+        <v>272.3157225653055</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>89</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-118.8520710332161</v>
+      </c>
+      <c r="D10" t="n">
+        <v>288.2954293695909</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>107</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-84.10174747118805</v>
+      </c>
+      <c r="D11" t="n">
+        <v>303.6148072029151</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>124</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-69.08082131303208</v>
+      </c>
+      <c r="D12" t="n">
+        <v>332.0223789788963</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>141</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-52.06535693598829</v>
+      </c>
+      <c r="D13" t="n">
+        <v>328.2133336145876</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>159</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-40.56737382535163</v>
+      </c>
+      <c r="D14" t="n">
+        <v>344.5844499477979</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>176</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-16.17638286815213</v>
+      </c>
+      <c r="D15" t="n">
+        <v>381.5578658783736</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>194</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.9693886141866439</v>
+      </c>
+      <c r="D16" t="n">
+        <v>382.0537405440693</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>211</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15.2334371512957</v>
+      </c>
+      <c r="D17" t="n">
+        <v>401.9430564312699</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>263</v>
+      </c>
+      <c r="C18" t="n">
+        <v>61.94810443160678</v>
+      </c>
+      <c r="D18" t="n">
+        <v>441.9491433847377</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>280</v>
+      </c>
+      <c r="C19" t="n">
+        <v>85.36674805736634</v>
+      </c>
+      <c r="D19" t="n">
+        <v>467.6508674003221</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>298</v>
+      </c>
+      <c r="C20" t="n">
+        <v>106.040970514938</v>
+      </c>
+      <c r="D20" t="n">
+        <v>497.3524017239074</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>315</v>
+      </c>
+      <c r="C21" t="n">
+        <v>125.2958251400976</v>
+      </c>
+      <c r="D21" t="n">
+        <v>497.1012146686867</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>333</v>
+      </c>
+      <c r="C22" t="n">
+        <v>136.8942878736851</v>
+      </c>
+      <c r="D22" t="n">
+        <v>529.8019970701837</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>367</v>
+      </c>
+      <c r="C23" t="n">
+        <v>159.7653382007402</v>
+      </c>
+      <c r="D23" t="n">
+        <v>538.8035138180769</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>385</v>
+      </c>
+      <c r="C24" t="n">
+        <v>194.148921151251</v>
+      </c>
+      <c r="D24" t="n">
+        <v>570.1382096110258</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>402</v>
+      </c>
+      <c r="C25" t="n">
+        <v>220.7895404959177</v>
+      </c>
+      <c r="D25" t="n">
+        <v>593.0869404283529</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>419</v>
+      </c>
+      <c r="C26" t="n">
+        <v>227.9516268821707</v>
+      </c>
+      <c r="D26" t="n">
+        <v>621.652109240131</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>437</v>
+      </c>
+      <c r="C27" t="n">
+        <v>246.162220618463</v>
+      </c>
+      <c r="D27" t="n">
+        <v>634.0897970182838</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>454</v>
+      </c>
+      <c r="C28" t="n">
+        <v>262.9282132254041</v>
+      </c>
+      <c r="D28" t="n">
+        <v>658.9858529359283</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>472</v>
+      </c>
+      <c r="C29" t="n">
+        <v>284.3420436174326</v>
+      </c>
+      <c r="D29" t="n">
+        <v>666.820063705129</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>489</v>
+      </c>
+      <c r="C30" t="n">
+        <v>301.9093140705801</v>
+      </c>
+      <c r="D30" t="n">
+        <v>678.8686113339016</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>506</v>
+      </c>
+      <c r="C31" t="n">
+        <v>322.1181501652826</v>
+      </c>
+      <c r="D31" t="n">
+        <v>694.3030313005524</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09SBV8M5F_po_data.xlsx
+++ b/po_analysis_by_asin/B09SBV8M5F_po_data.xlsx
@@ -725,7 +725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -744,16 +744,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -762,12 +752,6 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>-309.9584288973914</v>
-      </c>
-      <c r="D2" t="n">
-        <v>68.92008458619448</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -776,12 +760,6 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
-        <v>-275.9740200112391</v>
-      </c>
-      <c r="D3" t="n">
-        <v>97.66240340524286</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -790,12 +768,6 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
-        <v>-229.0277570744432</v>
-      </c>
-      <c r="D4" t="n">
-        <v>165.2299862578085</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -804,12 +776,6 @@
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="n">
-        <v>-211.3528519150798</v>
-      </c>
-      <c r="D5" t="n">
-        <v>190.6244962164252</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -818,12 +784,6 @@
       <c r="B6" t="n">
         <v>2</v>
       </c>
-      <c r="C6" t="n">
-        <v>-173.5818711903755</v>
-      </c>
-      <c r="D6" t="n">
-        <v>196.2225772599766</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -832,12 +792,6 @@
       <c r="B7" t="n">
         <v>37</v>
       </c>
-      <c r="C7" t="n">
-        <v>-142.2583021282564</v>
-      </c>
-      <c r="D7" t="n">
-        <v>233.8213240571929</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -846,12 +800,6 @@
       <c r="B8" t="n">
         <v>55</v>
       </c>
-      <c r="C8" t="n">
-        <v>-145.1462777859865</v>
-      </c>
-      <c r="D8" t="n">
-        <v>248.7854722588258</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -860,12 +808,6 @@
       <c r="B9" t="n">
         <v>72</v>
       </c>
-      <c r="C9" t="n">
-        <v>-117.783709228381</v>
-      </c>
-      <c r="D9" t="n">
-        <v>272.3157225653055</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -874,12 +816,6 @@
       <c r="B10" t="n">
         <v>89</v>
       </c>
-      <c r="C10" t="n">
-        <v>-118.8520710332161</v>
-      </c>
-      <c r="D10" t="n">
-        <v>288.2954293695909</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -888,12 +824,6 @@
       <c r="B11" t="n">
         <v>107</v>
       </c>
-      <c r="C11" t="n">
-        <v>-84.10174747118805</v>
-      </c>
-      <c r="D11" t="n">
-        <v>303.6148072029151</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -902,12 +832,6 @@
       <c r="B12" t="n">
         <v>124</v>
       </c>
-      <c r="C12" t="n">
-        <v>-69.08082131303208</v>
-      </c>
-      <c r="D12" t="n">
-        <v>332.0223789788963</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -916,12 +840,6 @@
       <c r="B13" t="n">
         <v>141</v>
       </c>
-      <c r="C13" t="n">
-        <v>-52.06535693598829</v>
-      </c>
-      <c r="D13" t="n">
-        <v>328.2133336145876</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -930,12 +848,6 @@
       <c r="B14" t="n">
         <v>159</v>
       </c>
-      <c r="C14" t="n">
-        <v>-40.56737382535163</v>
-      </c>
-      <c r="D14" t="n">
-        <v>344.5844499477979</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -944,12 +856,6 @@
       <c r="B15" t="n">
         <v>176</v>
       </c>
-      <c r="C15" t="n">
-        <v>-16.17638286815213</v>
-      </c>
-      <c r="D15" t="n">
-        <v>381.5578658783736</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -958,12 +864,6 @@
       <c r="B16" t="n">
         <v>194</v>
       </c>
-      <c r="C16" t="n">
-        <v>-0.9693886141866439</v>
-      </c>
-      <c r="D16" t="n">
-        <v>382.0537405440693</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -972,12 +872,6 @@
       <c r="B17" t="n">
         <v>211</v>
       </c>
-      <c r="C17" t="n">
-        <v>15.2334371512957</v>
-      </c>
-      <c r="D17" t="n">
-        <v>401.9430564312699</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -986,12 +880,6 @@
       <c r="B18" t="n">
         <v>263</v>
       </c>
-      <c r="C18" t="n">
-        <v>61.94810443160678</v>
-      </c>
-      <c r="D18" t="n">
-        <v>441.9491433847377</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1000,12 +888,6 @@
       <c r="B19" t="n">
         <v>280</v>
       </c>
-      <c r="C19" t="n">
-        <v>85.36674805736634</v>
-      </c>
-      <c r="D19" t="n">
-        <v>467.6508674003221</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1014,12 +896,6 @@
       <c r="B20" t="n">
         <v>298</v>
       </c>
-      <c r="C20" t="n">
-        <v>106.040970514938</v>
-      </c>
-      <c r="D20" t="n">
-        <v>497.3524017239074</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1028,12 +904,6 @@
       <c r="B21" t="n">
         <v>315</v>
       </c>
-      <c r="C21" t="n">
-        <v>125.2958251400976</v>
-      </c>
-      <c r="D21" t="n">
-        <v>497.1012146686867</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1042,12 +912,6 @@
       <c r="B22" t="n">
         <v>333</v>
       </c>
-      <c r="C22" t="n">
-        <v>136.8942878736851</v>
-      </c>
-      <c r="D22" t="n">
-        <v>529.8019970701837</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1056,12 +920,6 @@
       <c r="B23" t="n">
         <v>367</v>
       </c>
-      <c r="C23" t="n">
-        <v>159.7653382007402</v>
-      </c>
-      <c r="D23" t="n">
-        <v>538.8035138180769</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1070,12 +928,6 @@
       <c r="B24" t="n">
         <v>385</v>
       </c>
-      <c r="C24" t="n">
-        <v>194.148921151251</v>
-      </c>
-      <c r="D24" t="n">
-        <v>570.1382096110258</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1084,12 +936,6 @@
       <c r="B25" t="n">
         <v>402</v>
       </c>
-      <c r="C25" t="n">
-        <v>220.7895404959177</v>
-      </c>
-      <c r="D25" t="n">
-        <v>593.0869404283529</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1098,12 +944,6 @@
       <c r="B26" t="n">
         <v>419</v>
       </c>
-      <c r="C26" t="n">
-        <v>227.9516268821707</v>
-      </c>
-      <c r="D26" t="n">
-        <v>621.652109240131</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1112,12 +952,6 @@
       <c r="B27" t="n">
         <v>437</v>
       </c>
-      <c r="C27" t="n">
-        <v>246.162220618463</v>
-      </c>
-      <c r="D27" t="n">
-        <v>634.0897970182838</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1126,12 +960,6 @@
       <c r="B28" t="n">
         <v>454</v>
       </c>
-      <c r="C28" t="n">
-        <v>262.9282132254041</v>
-      </c>
-      <c r="D28" t="n">
-        <v>658.9858529359283</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1140,12 +968,6 @@
       <c r="B29" t="n">
         <v>472</v>
       </c>
-      <c r="C29" t="n">
-        <v>284.3420436174326</v>
-      </c>
-      <c r="D29" t="n">
-        <v>666.820063705129</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1154,12 +976,6 @@
       <c r="B30" t="n">
         <v>489</v>
       </c>
-      <c r="C30" t="n">
-        <v>301.9093140705801</v>
-      </c>
-      <c r="D30" t="n">
-        <v>678.8686113339016</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1167,12 +983,6 @@
       </c>
       <c r="B31" t="n">
         <v>506</v>
-      </c>
-      <c r="C31" t="n">
-        <v>322.1181501652826</v>
-      </c>
-      <c r="D31" t="n">
-        <v>694.3030313005524</v>
       </c>
     </row>
   </sheetData>
